--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,124 +52,133 @@
     <t>returned</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>cakes</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>comfortable</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>thanks</t>
@@ -178,63 +187,60 @@
     <t>popcorn</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>baking</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>exactly</t>
   </si>
   <si>
@@ -244,45 +250,45 @@
     <t>works</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
@@ -292,19 +298,19 @@
     <t>little</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>used</t>
@@ -677,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -764,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -788,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -796,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.725</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9310344827586207</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -846,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3643410852713178</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3535353535353535</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8560371517027864</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>553</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>553</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1621621621621622</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,21 +994,45 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.1675675675675676</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>154</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8043478260869565</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.7727272727272727</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7532467532467533</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7288135593220338</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L11">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="M11">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7111111111111111</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7012987012987013</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L13">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6857142857142857</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1170,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6575342465753424</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1196,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6476725521669342</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L16">
-        <v>807</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>807</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1222,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>439</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6410256410256411</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1248,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.640625</v>
+        <v>0.671875</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1274,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6338028169014085</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>812</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>812</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1300,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6323529411764706</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1326,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="L21">
         <v>32</v>
       </c>
-      <c r="K21">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="L21">
-        <v>44</v>
-      </c>
       <c r="M21">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1352,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1383,16 +1413,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5964912280701754</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1404,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5918367346938775</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1430,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5783132530120482</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1456,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1482,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5694444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1508,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>0.5571428571428572</v>
+      </c>
+      <c r="L28">
         <v>39</v>
       </c>
-      <c r="K28">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="L28">
-        <v>22</v>
-      </c>
       <c r="M28">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1534,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1560,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5538461538461539</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1586,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5526315789473685</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1612,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5480769230769231</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L32">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1638,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5294117647058824</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1664,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.5213675213675214</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1690,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.5209580838323353</v>
+        <v>0.49</v>
       </c>
       <c r="L35">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="M35">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1716,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.5079365079365079</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1742,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.4918032786885246</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1768,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.4897959183673469</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1794,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.47</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M39">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1820,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.4511278195488722</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L40">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1846,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.4354838709677419</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1872,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.4210526315789473</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1898,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.4197530864197531</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1924,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.4156626506024096</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L44">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1950,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.4126984126984127</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1976,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.3970588235294117</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L46">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2002,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>246</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.3970588235294117</v>
+        <v>0.3848039215686275</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2028,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>41</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.3696498054474708</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L48">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M48">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2054,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.3611111111111111</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2080,47 +2110,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.3603603603603603</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L50">
+        <v>23</v>
+      </c>
+      <c r="M50">
+        <v>23</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>40</v>
-      </c>
-      <c r="M50">
-        <v>40</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>71</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.3533834586466165</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L51">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M51">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2132,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.3328767123287671</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L52">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="M52">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2158,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>487</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.3063063063063063</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L53">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="M53">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2184,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>77</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.3055555555555556</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M54">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2210,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.2976190476190476</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2236,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.2966507177033493</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="L56">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M56">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2262,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.2949640287769784</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2288,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.2772277227722773</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L58">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M58">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2314,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.271523178807947</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L59">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="M59">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2340,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>110</v>
+        <v>686</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.2666666666666667</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2366,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K61">
-        <v>0.2661637931034483</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L61">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="M61">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2389,76 +2419,76 @@
         <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>681</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K62">
-        <v>0.2589285714285715</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.2416107382550336</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="L63">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.2145695364238411</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="L64">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2470,21 +2500,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>593</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.2033248081841432</v>
+        <v>0.2145695364238411</v>
       </c>
       <c r="L65">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M65">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2496,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>623</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K66">
-        <v>0.1974921630094044</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L66">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M66">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2522,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>256</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K67">
-        <v>0.1965811965811966</v>
+        <v>0.2122762148337596</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2548,21 +2578,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>94</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1951219512195122</v>
+        <v>0.2006269592476489</v>
       </c>
       <c r="L68">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2574,21 +2604,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>132</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K69">
-        <v>0.1845018450184502</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L69">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M69">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2600,47 +2630,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>221</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K70">
-        <v>0.1666666666666667</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="L70">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M70">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>380</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K71">
-        <v>0.162291169451074</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L71">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2652,73 +2682,73 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>351</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K72">
-        <v>0.1612903225806452</v>
+        <v>0.1599045346062052</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M72">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>130</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K73">
-        <v>0.1544715447154472</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L73">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M73">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>312</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K74">
-        <v>0.1527093596059113</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="L74">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M74">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2730,21 +2760,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K75">
-        <v>0.1518518518518518</v>
+        <v>0.1557017543859649</v>
       </c>
       <c r="L75">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M75">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2756,21 +2786,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>229</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K76">
-        <v>0.1412429378531073</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L76">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2782,47 +2812,47 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>152</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K77">
-        <v>0.134453781512605</v>
+        <v>0.1524163568773234</v>
       </c>
       <c r="L77">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M77">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K78">
-        <v>0.1340909090909091</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L78">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M78">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2834,21 +2864,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>381</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K79">
-        <v>0.1313868613138686</v>
+        <v>0.1340909090909091</v>
       </c>
       <c r="L79">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M79">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2860,21 +2890,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>357</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K80">
-        <v>0.127147766323024</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L80">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M80">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2886,21 +2916,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>254</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K81">
-        <v>0.09289617486338798</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L81">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M81">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2912,21 +2942,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>332</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K82">
-        <v>0.09137055837563451</v>
+        <v>0.09328358208955224</v>
       </c>
       <c r="L82">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M82">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -2938,189 +2968,215 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>358</v>
+        <v>972</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K83">
-        <v>0.08496732026143791</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L83">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="M83">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="N83">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>980</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K84">
-        <v>0.07902298850574713</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="L84">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M84">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="N84">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O84">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K85">
-        <v>0.06295399515738499</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L85">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N85">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>387</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K86">
-        <v>0.05758157389635317</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L86">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M86">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N86">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>491</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K87">
-        <v>0.05632582322357019</v>
+        <v>0.07115384615384615</v>
       </c>
       <c r="L87">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M87">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="N87">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O87">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>1089</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K88">
-        <v>0.05535055350553506</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="L88">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M88">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>512</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K89">
-        <v>0.03674540682414698</v>
+        <v>0.05914972273567468</v>
       </c>
       <c r="L89">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M89">
         <v>33</v>
       </c>
       <c r="N89">
+        <v>0.97</v>
+      </c>
+      <c r="O89">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K90">
+        <v>0.03805774278215223</v>
+      </c>
+      <c r="L90">
+        <v>29</v>
+      </c>
+      <c r="M90">
+        <v>34</v>
+      </c>
+      <c r="N90">
         <v>0.85</v>
       </c>
-      <c r="O89">
+      <c r="O90">
         <v>0.15</v>
       </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>734</v>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>733</v>
       </c>
     </row>
   </sheetData>
